--- a/EstimateConverter/EstimateConverter/WBS.xlsx
+++ b/EstimateConverter/EstimateConverter/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdoma\Source\Repos\EstimateConverter\EstimateConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EstimateConverter\EstimateConverter\EstimateConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A910747-D085-4D53-A837-FD9951636B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451978D0-673C-4DE1-9008-9F4EFC16E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="18000" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="18000" windowHeight="9360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t>Activity Type</t>
   </si>
@@ -414,21 +414,6 @@
   </si>
   <si>
     <t>Unit testing</t>
-  </si>
-  <si>
-    <t>13 SP</t>
-  </si>
-  <si>
-    <t>Story111</t>
-  </si>
-  <si>
-    <t>Story 2222</t>
-  </si>
-  <si>
-    <t>Story45485</t>
-  </si>
-  <si>
-    <t>1 SP</t>
   </si>
 </sst>
 </file>
@@ -1700,6 +1685,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,109 +1790,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4129,7 +4114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,23 +4192,17 @@
       <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="107">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>87</v>
-      </c>
+      <c r="A2" s="107"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="108"/>
       <c r="D2" s="109"/>
       <c r="E2" s="110"/>
       <c r="F2" s="111"/>
       <c r="G2" s="112"/>
-      <c r="H2" s="113">
-        <v>1.5</v>
-      </c>
+      <c r="H2" s="113"/>
       <c r="I2" s="40">
         <f t="shared" ref="I2:I17" si="0">(F2+G2+4*H2)/6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" ref="J2:J17" si="1">(G2-F2)/6</f>
@@ -4235,42 +4214,33 @@
       </c>
       <c r="L2" s="43">
         <f>I2*'Input Data'!$B$2</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M2" s="45">
         <f>I2*'Input Data'!$B$3</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="46">
         <f>I2*'Input Data'!$B$4</f>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="O2" s="34">
         <f t="shared" ref="O2:O17" si="3">I2+L2+M2+N2</f>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="P2" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A3" s="38"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="8"/>
       <c r="D3" s="54"/>
       <c r="E3" s="10"/>
       <c r="F3" s="58"/>
       <c r="G3" s="59"/>
-      <c r="H3" s="60">
-        <v>5</v>
-      </c>
+      <c r="H3" s="60"/>
       <c r="I3" s="40">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" si="1"/>
@@ -4291,30 +4261,21 @@
       </c>
       <c r="O3" s="34">
         <f t="shared" si="3"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="P3" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A4" s="38"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="8"/>
       <c r="D4" s="54"/>
       <c r="E4" s="10"/>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="40">
         <f t="shared" si="0"/>
-        <v>0.46666666666666662</v>
+        <v>0</v>
       </c>
       <c r="J4" s="17">
         <f t="shared" si="1"/>
@@ -4335,10 +4296,7 @@
       </c>
       <c r="O4" s="34">
         <f t="shared" si="3"/>
-        <v>0.46666666666666662</v>
-      </c>
-      <c r="P4" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -4847,11 +4805,11 @@
       </c>
       <c r="H18" s="29">
         <f t="shared" si="6"/>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="36">
         <f t="shared" si="6"/>
-        <v>4.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J18" s="30">
         <f t="shared" si="6"/>
@@ -4863,19 +4821,19 @@
       </c>
       <c r="L18" s="48">
         <f t="shared" si="6"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M18" s="49">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="50">
         <f t="shared" si="6"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="O18" s="36">
         <f t="shared" si="6"/>
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4919,18 +4877,18 @@
       <c r="N20" s="119"/>
       <c r="O20" s="22">
         <f>O18+(2*O19)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="P20" t="s">
         <v>26</v>
       </c>
       <c r="Q20" s="57">
         <f>O20*8</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R20" s="97">
         <f>O20*8</f>
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5014,10 +4972,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="153" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="87">
@@ -5111,91 +5069,91 @@
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="144" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146" t="s">
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148" t="s">
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="150" t="s">
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="152" t="s">
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="AM2" s="152"/>
-      <c r="AN2" s="152"/>
-      <c r="AO2" s="152"/>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="152"/>
-      <c r="AS2" s="152"/>
-      <c r="AT2" s="152"/>
-      <c r="AU2" s="152"/>
-      <c r="AV2" s="153" t="s">
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="153"/>
-      <c r="AX2" s="153"/>
-      <c r="AY2" s="153"/>
-      <c r="AZ2" s="153"/>
-      <c r="BA2" s="153"/>
-      <c r="BB2" s="153"/>
-      <c r="BC2" s="153"/>
-      <c r="BD2" s="153"/>
-      <c r="BE2" s="153"/>
-      <c r="BF2" s="151" t="s">
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="131"/>
+      <c r="AY2" s="131"/>
+      <c r="AZ2" s="131"/>
+      <c r="BA2" s="131"/>
+      <c r="BB2" s="131"/>
+      <c r="BC2" s="131"/>
+      <c r="BD2" s="131"/>
+      <c r="BE2" s="131"/>
+      <c r="BF2" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="BG2" s="151"/>
-      <c r="BH2" s="151"/>
-      <c r="BI2" s="151"/>
-      <c r="BJ2" s="151"/>
-      <c r="BK2" s="151"/>
-      <c r="BL2" s="151"/>
-      <c r="BM2" s="151"/>
-      <c r="BN2" s="151"/>
-      <c r="BO2" s="151"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
+      <c r="BI2" s="129"/>
+      <c r="BJ2" s="129"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="62">
         <v>6</v>
       </c>
@@ -5393,19 +5351,19 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="78" t="s">
         <v>41</v>
       </c>
@@ -5433,8 +5391,8 @@
       <c r="BO4" s="100"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="81" t="s">
         <v>37</v>
       </c>
@@ -5464,16 +5422,16 @@
       <c r="BO5" s="100"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
-      <c r="B6" s="128" t="s">
+      <c r="A6" s="142"/>
+      <c r="B6" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
       <c r="G6" s="78" t="s">
         <v>41</v>
       </c>
@@ -5490,8 +5448,8 @@
       <c r="BO6" s="100"/>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="71"/>
       <c r="D7" s="71"/>
       <c r="E7" s="82" t="s">
@@ -5516,20 +5474,20 @@
       <c r="BO7" s="100"/>
     </row>
     <row r="8" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="136" t="s">
+      <c r="M8" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
       <c r="S8" s="78" t="s">
         <v>41</v>
       </c>
@@ -5548,8 +5506,8 @@
       <c r="BO8" s="100"/>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="150"/>
       <c r="M9" s="67" t="s">
         <v>37</v>
       </c>
@@ -5569,15 +5527,15 @@
       <c r="BO9" s="100"/>
     </row>
     <row r="10" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="124" t="s">
+      <c r="A10" s="142"/>
+      <c r="B10" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="136" t="s">
+      <c r="M10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
       <c r="P10" s="78" t="s">
         <v>41</v>
       </c>
@@ -5593,8 +5551,8 @@
       <c r="BO10" s="100"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="151"/>
       <c r="M11" s="70"/>
       <c r="N11" s="71"/>
       <c r="O11" s="71"/>
@@ -5615,19 +5573,19 @@
       <c r="BO11" s="100"/>
     </row>
     <row r="12" spans="1:67" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="W12" s="136" t="s">
+      <c r="W12" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="X12" s="127"/>
-      <c r="Y12" s="127"/>
-      <c r="Z12" s="127"/>
-      <c r="AA12" s="127"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="134"/>
       <c r="AB12" s="78" t="s">
         <v>41</v>
       </c>
@@ -5642,8 +5600,8 @@
       <c r="BO12" s="100"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="128"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="147"/>
       <c r="W13" s="67" t="s">
         <v>37</v>
       </c>
@@ -5659,16 +5617,16 @@
       <c r="BO13" s="100"/>
     </row>
     <row r="14" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
-      <c r="B14" s="137" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="W14" s="136" t="s">
+      <c r="W14" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
       <c r="AA14" s="78" t="s">
         <v>41</v>
       </c>
@@ -5683,8 +5641,8 @@
       <c r="BO14" s="100"/>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="138"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="139"/>
       <c r="W15" s="70"/>
       <c r="X15" s="71"/>
       <c r="Y15" s="72" t="s">
@@ -5706,10 +5664,10 @@
       <c r="BO15" s="100"/>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="143" t="s">
         <v>35</v>
       </c>
       <c r="AG16" s="64" t="s">
@@ -5723,8 +5681,8 @@
       <c r="BO16" s="100"/>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="140"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="144"/>
       <c r="AG17" s="67" t="s">
         <v>37</v>
       </c>
@@ -5735,20 +5693,20 @@
       <c r="BO17" s="100"/>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="89" t="s">
         <v>49</v>
       </c>
       <c r="AG18" s="76"/>
-      <c r="AJ18" s="141" t="s">
+      <c r="AJ18" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="AK18" s="141"/>
-      <c r="AL18" s="141"/>
-      <c r="AM18" s="154" t="s">
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="AN18" s="154"/>
+      <c r="AN18" s="132"/>
       <c r="AO18" s="69"/>
       <c r="AP18" s="69"/>
       <c r="AZ18" s="95"/>
@@ -5756,7 +5714,7 @@
       <c r="BO18" s="100"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
+      <c r="A19" s="142"/>
       <c r="B19" s="90" t="s">
         <v>53</v>
       </c>
@@ -5764,16 +5722,16 @@
       <c r="AH19" s="71"/>
       <c r="AI19" s="71"/>
       <c r="AJ19" s="71"/>
-      <c r="AK19" s="155" t="s">
+      <c r="AK19" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="AL19" s="155"/>
-      <c r="AM19" s="155"/>
-      <c r="AN19" s="155"/>
-      <c r="AO19" s="155"/>
-      <c r="AP19" s="155"/>
-      <c r="AQ19" s="155"/>
-      <c r="AR19" s="155"/>
+      <c r="AL19" s="133"/>
+      <c r="AM19" s="133"/>
+      <c r="AN19" s="133"/>
+      <c r="AO19" s="133"/>
+      <c r="AP19" s="133"/>
+      <c r="AQ19" s="133"/>
+      <c r="AR19" s="133"/>
       <c r="AZ19" s="95"/>
       <c r="BJ19" s="95"/>
       <c r="BO19" s="100"/>
@@ -5785,23 +5743,23 @@
       <c r="B20" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AS20" s="127" t="s">
+      <c r="AS20" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="AT20" s="127"/>
-      <c r="AU20" s="127"/>
-      <c r="AV20" s="127"/>
-      <c r="AW20" s="156" t="s">
+      <c r="AT20" s="134"/>
+      <c r="AU20" s="134"/>
+      <c r="AV20" s="134"/>
+      <c r="AW20" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="AX20" s="156"/>
-      <c r="AY20" s="157"/>
+      <c r="AX20" s="135"/>
+      <c r="AY20" s="136"/>
       <c r="AZ20" s="95"/>
-      <c r="BA20" s="154" t="s">
+      <c r="BA20" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="BB20" s="154"/>
-      <c r="BC20" s="154"/>
+      <c r="BB20" s="132"/>
+      <c r="BC20" s="132"/>
       <c r="BG20" s="85"/>
       <c r="BH20" s="85"/>
       <c r="BI20" s="85"/>
@@ -5815,24 +5773,24 @@
       <c r="B21" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="AW21" s="155" t="s">
+      <c r="AW21" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="AX21" s="155"/>
-      <c r="AY21" s="155"/>
-      <c r="AZ21" s="155"/>
-      <c r="BA21" s="155"/>
-      <c r="BB21" s="155"/>
-      <c r="BC21" s="155"/>
-      <c r="BD21" s="155"/>
-      <c r="BE21" s="155"/>
-      <c r="BF21" s="155"/>
-      <c r="BG21" s="142" t="s">
+      <c r="AX21" s="133"/>
+      <c r="AY21" s="133"/>
+      <c r="AZ21" s="133"/>
+      <c r="BA21" s="133"/>
+      <c r="BB21" s="133"/>
+      <c r="BC21" s="133"/>
+      <c r="BD21" s="133"/>
+      <c r="BE21" s="133"/>
+      <c r="BF21" s="133"/>
+      <c r="BG21" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="BH21" s="142"/>
-      <c r="BI21" s="142"/>
-      <c r="BJ21" s="143"/>
+      <c r="BH21" s="120"/>
+      <c r="BI21" s="120"/>
+      <c r="BJ21" s="121"/>
       <c r="BO21" s="100"/>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.25">
@@ -5840,6 +5798,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="BG21:BJ21"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:Q2"/>
@@ -5855,25 +5832,6 @@
     <mergeCell ref="BA20:BC20"/>
     <mergeCell ref="AW21:BF21"/>
     <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5915,15 +5873,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC451AB812A56546A59B67B449AEB894" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2dc1bbc237dfc1f564fc948cf5f4fdd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9a643d9e-8fd5-448f-b86a-ffb296f5d380" xmlns:ns3="dba1e48c-b158-4bc6-a088-e30c4bb5e571" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c542c8857b16944e549af528d8b9fe8" ns2:_="" ns3:_="">
     <xsd:import namespace="9a643d9e-8fd5-448f-b86a-ffb296f5d380"/>
@@ -6134,6 +6083,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DAB2BF5-F798-419A-9C8F-E33BEB3C2386}">
   <ds:schemaRefs>
@@ -6145,14 +6103,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30953381-20B1-4B01-8092-C03A224D30AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18541F73-1F1B-44F1-9939-4BED9AA98D82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6169,4 +6119,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30953381-20B1-4B01-8092-C03A224D30AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>